--- a/Datensatz2/Datei 2/R2.2 - Bereinigte Form Datenprojekt Datensatz 2.xlsx
+++ b/Datensatz2/Datei 2/R2.2 - Bereinigte Form Datenprojekt Datensatz 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>BEREINIGTER DATENSATZ 2</t>
   </si>
@@ -20,6 +20,15 @@
   </si>
   <si>
     <t>Temperatur (°C)</t>
+  </si>
+  <si>
+    <t>1982-2011 mean</t>
+  </si>
+  <si>
+    <t>plus 2σ</t>
+  </si>
+  <si>
+    <t>minus 2σ</t>
   </si>
 </sst>
 </file>
@@ -48,7 +57,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -76,7 +84,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,7 +414,7 @@
         <v>1993.0</v>
       </c>
       <c r="B15" s="3">
-        <v>20.11</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="16">
@@ -443,175 +454,191 @@
         <v>1998.0</v>
       </c>
       <c r="B20" s="3">
-        <v>20.41</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>1999.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B21" s="3">
-        <v>20.2</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>2000.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B22" s="3">
-        <v>20.21</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>2001.0</v>
+        <v>2002.0</v>
       </c>
       <c r="B23" s="3">
-        <v>20.33</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>2002.0</v>
+        <v>2203.0</v>
       </c>
       <c r="B24" s="3">
-        <v>20.27</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>2003.0</v>
+        <v>2004.0</v>
       </c>
       <c r="B25" s="3">
-        <v>20.43</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>2004.0</v>
+        <v>2005.0</v>
       </c>
       <c r="B26" s="3">
-        <v>20.37</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>2005.0</v>
+        <v>2006.0</v>
       </c>
       <c r="B27" s="3">
-        <v>20.53</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>2006.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B28" s="3">
-        <v>20.48</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>2007.0</v>
+        <v>2008.0</v>
       </c>
       <c r="B29" s="3">
-        <v>20.32</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>2008.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B30" s="3">
-        <v>20.38</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>2010.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B31" s="3">
-        <v>20.44</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B32" s="3">
-        <v>20.37</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B33" s="3">
-        <v>20.49</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B34" s="3">
-        <v>20.52</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B35" s="3">
-        <v>20.65</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B36" s="3">
-        <v>20.73</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
-        <v>2016.0</v>
-      </c>
-      <c r="B37" s="3">
-        <v>20.67</v>
+      <c r="A37" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="B37" s="4">
+        <v>20.8</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="B38" s="3">
-        <v>20.8</v>
+      <c r="A38" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>20.7</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
-        <v>2021.0</v>
-      </c>
-      <c r="B39" s="3">
-        <v>20.7</v>
+      <c r="A39" s="4">
+        <v>2022.0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>20.74</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
-        <v>2022.0</v>
-      </c>
-      <c r="B40" s="3">
-        <v>20.74</v>
+      <c r="A40" s="4">
+        <v>2023.0</v>
+      </c>
+      <c r="B40" s="4">
+        <v>21.09</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
-        <v>2023.0</v>
-      </c>
-      <c r="B41" s="3">
-        <v>21.09</v>
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4">
+        <v>19.92</v>
       </c>
     </row>
   </sheetData>
